--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\京祐\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\京祐\Desktop\GC1　授業\C++\Creature-s-Parade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,17 @@
   </si>
   <si>
     <t>Obstacle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lifeの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,13 +193,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -505,7 +533,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -514,35 +542,35 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -551,7 +579,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -560,7 +588,7 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -569,13 +597,21 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -73,13 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Creatureを連れる</t>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Creature</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,13 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Playerとの判定</t>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Trapとの判定</t>
     <rPh sb="6" eb="8">
       <t>ハンテイ</t>
@@ -137,6 +123,33 @@
     <t>lifeの表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触れたCreatureを後ろに連れる</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの後ろをついていく</t>
+    <rPh sb="6" eb="7">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player、Creatureとの判定</t>
+    <rPh sb="17" eb="19">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,17 +206,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -223,10 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -551,7 +553,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -565,59 +567,69 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -151,6 +151,38 @@
     <rPh sb="17" eb="19">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスの方向に</t>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列を組む</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,14 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,19 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,63 +564,83 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -595,8 +648,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -604,8 +658,9 @@
         <v>19</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -613,15 +668,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -179,6 +179,10 @@
     <rPh sb="2" eb="3">
       <t>ク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -238,13 +242,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +302,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -608,7 +658,9 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
@@ -619,7 +671,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -629,7 +681,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -641,49 +693,57 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -285,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +319,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -740,6 +751,16 @@
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A6"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\京祐\Desktop\GC1　授業\C++\Creature-s-Parade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\京祐\Desktop\GC1　授業\C++\個人製作\Creature-s-Parade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -227,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,58 +258,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,16 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -682,17 +641,19 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -704,15 +665,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -722,7 +685,7 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -732,34 +695,50 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -94,13 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>動き</t>
-    <rPh sb="0" eb="1">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Map</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -203,6 +196,64 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Playerが触れるとゴール</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effectに当たるとダメージ</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EffectやArrowを出す</t>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間で消える</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数秒間に1回の動き</t>
+    <rPh sb="0" eb="3">
+      <t>スウビョウカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力の表示</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,13 +309,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +369,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,17 +663,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -584,14 +684,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -599,11 +699,11 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -611,37 +711,37 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -649,101 +749,126 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -253,6 +253,27 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elevator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上下移動</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウゲイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチにcreatureを乗せると動く</t>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,17 +687,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -691,7 +715,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -703,7 +727,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,7 +735,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -721,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -733,7 +757,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -741,7 +765,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -753,7 +777,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -765,7 +789,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -797,78 +821,90 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,11 +268,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スイッチにcreatureを乗せると動く</t>
-    <rPh sb="14" eb="15">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
+    <t>スイッチにcreatureをぶつけると動く</t>
+    <rPh sb="19" eb="20">
       <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -690,7 +687,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -271,6 +271,29 @@
     <t>スイッチにcreatureをぶつけると動く</t>
     <rPh sb="19" eb="20">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度仲間にしたCreatureのみ</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creatureを集める(詰み防止)</t>
+    <rPh sb="9" eb="10">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ボウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,10 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -724,7 +747,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,7 +755,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -742,7 +765,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,28 +782,30 @@
         <v>31</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
@@ -788,120 +813,134 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Elevator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上下移動</t>
     <rPh sb="0" eb="4">
       <t>ジョウゲイドウ</t>
@@ -268,13 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スイッチにcreatureをぶつけると動く</t>
-    <rPh sb="19" eb="20">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一度仲間にしたCreatureのみ</t>
     <rPh sb="0" eb="2">
       <t>イチド</t>
@@ -295,6 +284,72 @@
     <rPh sb="15" eb="17">
       <t>ボウシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platformに信号を送る</t>
+    <rPh sb="9" eb="11">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間で信号をoffに</t>
+    <rPh sb="0" eb="4">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creatureをぶつけると起動</t>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switchから起動フラグを受け取る</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -735,7 +787,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -747,7 +799,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -755,7 +807,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +817,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -777,7 +829,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -787,19 +839,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -811,7 +863,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -823,7 +875,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -852,95 +904,129 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -342,6 +342,10 @@
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -761,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -990,7 +994,9 @@
         <v>15</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -342,6 +342,10 @@
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -766,7 +770,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -922,7 +926,9 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
@@ -930,7 +936,9 @@
         <v>42</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
@@ -942,7 +950,9 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
@@ -950,7 +960,9 @@
         <v>45</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">

--- a/Creature's Parade.xlsx
+++ b/Creature's Parade.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
@@ -358,6 +358,17 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MapSelect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -767,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1037,6 +1048,16 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
